--- a/src/main/resources/importFile/template.xlsx
+++ b/src/main/resources/importFile/template.xlsx
@@ -9,7 +9,7 @@
   <sheets>
     <sheet name="sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029" calcMode="manual"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
   <si>
     <t>资产名称</t>
   </si>
@@ -35,6 +35,9 @@
     <t>资产分类</t>
   </si>
   <si>
+    <t>资产二级分类</t>
+  </si>
+  <si>
     <t>资产编号</t>
   </si>
   <si>
@@ -74,13 +77,16 @@
     <t>电脑</t>
   </si>
   <si>
+    <t>联想</t>
+  </si>
+  <si>
     <t>2025-07-08</t>
   </si>
   <si>
     <t>工作量法</t>
   </si>
   <si>
-    <t>信息部</t>
+    <t>信息部/经营部</t>
   </si>
   <si>
     <t>test</t>
@@ -588,7 +594,7 @@
     </border>
   </borders>
   <cellStyleXfs count="49">
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1279,25 +1285,25 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:M2"/>
+  <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1"/>
   <cols>
     <col min="1" max="1" width="13.625" customWidth="1"/>
-    <col min="2" max="2" width="12.75" customWidth="1"/>
-    <col min="4" max="4" width="12.75" customWidth="1"/>
-    <col min="6" max="6" width="14" customWidth="1"/>
-    <col min="7" max="7" width="19.875" customWidth="1"/>
-    <col min="8" max="8" width="12.625" customWidth="1"/>
-    <col min="9" max="9" width="13.875" customWidth="1"/>
-    <col min="10" max="10" width="14.375" customWidth="1"/>
+    <col min="2" max="3" width="12.75" customWidth="1"/>
+    <col min="5" max="5" width="12.75" customWidth="1"/>
+    <col min="7" max="7" width="14" customWidth="1"/>
+    <col min="8" max="8" width="19.875" customWidth="1"/>
+    <col min="9" max="9" width="12.625" customWidth="1"/>
+    <col min="10" max="10" width="23" customWidth="1"/>
+    <col min="11" max="11" width="14.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:14">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1337,46 +1343,52 @@
       <c r="M1" s="1" t="s">
         <v>12</v>
       </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
     </row>
-    <row r="2" spans="1:13">
+    <row r="2" spans="1:14">
       <c r="A2" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C2" s="2">
+        <v>15</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D2" s="2">
         <v>123</v>
       </c>
-      <c r="D2" s="2">
+      <c r="E2" s="2">
         <v>321</v>
       </c>
-      <c r="E2" s="2">
+      <c r="F2" s="2">
         <v>2</v>
       </c>
-      <c r="F2" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="G2" s="2">
+      <c r="G2" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="H2" s="2">
         <v>4000</v>
       </c>
-      <c r="H2" s="2" t="s">
-        <v>16</v>
-      </c>
       <c r="I2" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>23</v>
       </c>
     </row>
   </sheetData>
